--- a/resource/config_excel_example/example_settingconst.xlsx
+++ b/resource/config_excel_example/example_settingconst.xlsx
@@ -240,13 +240,13 @@
     <x:row s="2" customFormat="1">
       <x:c s="1"/>
       <x:c s="2" t="str">
-        <x:v/>
+        <x:v>是否使用抗锯齿</x:v>
       </x:c>
       <x:c s="2" t="str">
-        <x:v/>
+        <x:v>本地化语言</x:v>
       </x:c>
       <x:c s="2" t="str">
-        <x:v/>
+        <x:v>版本号</x:v>
       </x:c>
     </x:row>
     <x:row s="3" customFormat="1">
